--- a/medicine/Pharmacie/Primula_farinosa/Primula_farinosa.xlsx
+++ b/medicine/Pharmacie/Primula_farinosa/Primula_farinosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Primula farinosa (également nommée primevère farineuse en France) est une espèce montagnarde de plantes à fleurs de la famille des Primulacées.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces plantes herbacées mesurent entre 5 et 20 cm.
 Les feuilles en rosette basale sont vertes dessus, blanches farineuses en dessous. Elles sont allongées obovales sur un pétiole ailé.
-Les fleurs sont roses lilas, à gorge jaune, en ombelle multiflore dressée; le tube de la corolle (4-6 mm) dépasse à peine le calice, les lobes font 4 à 7 mm[1].
+Les fleurs sont roses lilas, à gorge jaune, en ombelle multiflore dressée; le tube de la corolle (4-6 mm) dépasse à peine le calice, les lobes font 4 à 7 mm.
 			Planche botanique.
 			Vue en situation, dans les Alpes.
 			Rosette de feuilles.
@@ -550,9 +564,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce calcicole vit dans les marais, alentours de sources et alpages humides (bas-marais oligotrophiles et basiphiles). On la trouve en Suisse de l'étage collinéen à subalpin et dans le Jura méridional, elle est rare ailleurs[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce calcicole vit dans les marais, alentours de sources et alpages humides (bas-marais oligotrophiles et basiphiles). On la trouve en Suisse de l'étage collinéen à subalpin et dans le Jura méridional, elle est rare ailleurs.
 En France : Jura, Alpes et Pyrénées centrales de 700 à 2 600 m.
 </t>
         </is>
@@ -582,7 +598,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce « Primula farinosa L. » ne doit pas être confondu avec « Primula farinosa auct. non L. », nom illégitime synonyme de « Primula laurentiana Fernald. ».
 </t>
@@ -613,7 +631,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La racine de la primevère farineuse contient des saponines.[réf. nécessaire]
 </t>
